--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -46,94 +46,34 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>SA024MP1378JWNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0K3UESNAFAMZ</t>
-  </si>
-  <si>
-    <t>SC784MP0HMSXKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0PRGNONAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0Q26GKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0UJSZ8NAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/65/8427/1.jpg?7589</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/7717/1.jpg?8167</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/29/6174/1.jpg?8070</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/2717/1.jpg?9669</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/7717/1.jpg?8167</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/51/3125/1.jpg?7247</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-724856.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-bronze-garantie-1-an-717733.html</t>
-  </si>
-  <si>
-    <t>/schneider-wave-3-6.52-4go-32-go-noir-garantie-1an-pochette-anticasse-471692.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-717234.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-vert-menthe-garantie-1-an-717734.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-noir-garantie-1-an-521315.html</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Bronze - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Wave 3 - 6.52 - 4Go - 32 Go - Noir - Garantie 1an + Pochette + Anticasse</t>
-  </si>
-  <si>
-    <t>Galaxy A04e  6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Vert Menthe - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Noir - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/Android Phones</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>11%</t>
+    <t>AP009MP155ZMCNAFAMZ</t>
+  </si>
+  <si>
+    <t>AP009MP0263HWNAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/69/1437/1.jpg?5510</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/03/6437/1.jpg?4706</t>
+  </si>
+  <si>
+    <t>/apple-iphone-12-4g-ram-128gb-rom-noir-garantie-1-an-734196.html</t>
+  </si>
+  <si>
+    <t>/apple-iphone-12-4g-ram-128-gb-rom-blanc-garantie-1-an-734630.html</t>
+  </si>
+  <si>
+    <t>iPhone 12 -4G RAM - 128GB ROM - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>IPhone 12 - 4G RAM - 128 GB ROM - Blanc - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/iOS Phones</t>
   </si>
 </sst>
 </file>
@@ -504,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,28 +487,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>3099</v>
+      </c>
+      <c r="H2">
+        <v>3990</v>
+      </c>
+      <c r="I2">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>479</v>
-      </c>
-      <c r="H2">
-        <v>559</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -579,158 +519,30 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>399</v>
+        <v>3099</v>
       </c>
       <c r="H3">
-        <v>550</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
+        <v>3990</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>575</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5">
-        <v>499</v>
-      </c>
-      <c r="H5">
-        <v>559</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>399</v>
-      </c>
-      <c r="H6">
-        <v>550</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>399</v>
-      </c>
-      <c r="H7">
-        <v>550</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -738,10 +550,6 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -46,34 +46,190 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>AP009MP155ZMCNAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP0263HWNAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/69/1437/1.jpg?5510</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/03/6437/1.jpg?4706</t>
-  </si>
-  <si>
-    <t>/apple-iphone-12-4g-ram-128gb-rom-noir-garantie-1-an-734196.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-12-4g-ram-128-gb-rom-blanc-garantie-1-an-734630.html</t>
-  </si>
-  <si>
-    <t>iPhone 12 -4G RAM - 128GB ROM - Noir - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>IPhone 12 - 4G RAM - 128 GB ROM - Blanc - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/iOS Phones</t>
+    <t>XI811MP0FRUO4NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP05NHDWNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1GTAG8NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP11H524NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP01H64CNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP04TH50NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1IGQYKNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1HVPXSNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP0I0UHKNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1840R0NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1IZIQCNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1786OONAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1HURWSNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1G0RG0NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP0KAOJWNAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/26/4937/1.jpg?6348</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/09/4937/1.jpg?0549</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/88/7066/1.jpg?0347</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/62/9455/1.jpg?8331</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/02/4807/1.jpg?8966</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/08/0937/1.jpg?1933</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/91/4807/1.jpg?8966</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/4996/1.jpg?5848</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/30/2726/1.jpg?4347</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/74/0907/1.jpg?2896</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/92/3565/1.jpg?9948</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/6054/1.jpg?1466</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/4555/1.jpg?7149</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/87/3756/1.jpg?6608</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/34/0907/1.jpg?2895</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-12c-3go-64go-gray-garantie-1-an-739462.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-note-12-667-amoled-120hz-4-go-128-go-gris-onyx-garantie-1-an-739490.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-9a-6.53-2-go-32-go-granite-gray-garantie-1-an-660788.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-10c-graohite-gray-4g-ram-64g-rom-garantie-1-an-554926.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-pebble-white-garantie-1-an-support-lazy-360-708420.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-note-12-4g-6.67-6go-128go-blue-garantie-1an-739080.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-carbon-gray-garantie-1-an-support-lazy-360-708419.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-carbon-gray-garantie-1-an-699409.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-10c-6.71-4go-128go-vert-garantie-1-an-627203.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-a1-2gb-32gb-light-green-709047.html</t>
+  </si>
+  <si>
+    <t>/note-11-pro-667-amoled120hz-8go-128go-graphite-gray-garantie-1-an-xiaomi-mpg29802.html</t>
+  </si>
+  <si>
+    <t>/poco-f3-8go-256go-arctic-white-garantie-1-an-xiaomi-mpg20438.html</t>
+  </si>
+  <si>
+    <t>/redmi-10c-6.71-4go-128go-graphite-gray-garantie-1-an-xiaomi-mpg29804.html</t>
+  </si>
+  <si>
+    <t>/redmi-10c-6.71-4go-64go-bleu-garantie-1-an-xiaomi-mpg33911.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-a1-2gb-32gb-light-blue-709043.html</t>
+  </si>
+  <si>
+    <t>Redmi 12C - 3Go - 64Go - Gray - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Note 12 - 6,67 Amoled 120hz - 4 Go -128 Go - Gris Onyx- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi 9A - 6.53 - 2 Go - 32 Go - Granite Gray - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi 10C - Graohite Gray - 4G RAM - 64G ROM - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Pebble White - Garantie 1 an + Support lazy 360 °</t>
+  </si>
+  <si>
+    <t>Note 12 - 4G -6.67- 6Go-128Go-Blue- Garantie 1an</t>
+  </si>
+  <si>
+    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Carbon Gray - Garantie 1 an + Support lazy 360 °</t>
+  </si>
+  <si>
+    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Carbon Gray - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi 10C - 6.71- 4Go - 128Go - Vert- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi A1+ - 2GB - 32GB - Light Green</t>
+  </si>
+  <si>
+    <t>Note 11 Pro - 6,67 - 108 mégapixel  - 8Go-128Go - GRAPHITE GRAY - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Poco F3 - 8Go - 256Go - Arctic White - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi 10C - 6.71- 4Go - 128Go  - Graphite Gray - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi10C - 6.71- 4Go - 64Go  - Mint Green - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi A1+  -  2GB  - 32GB - Light Blue</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/Android Phones</t>
   </si>
 </sst>
 </file>
@@ -444,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,28 +643,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>3099</v>
+        <v>469</v>
       </c>
       <c r="H2">
-        <v>3990</v>
+        <v>529</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -519,30 +675,446 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>779</v>
+      </c>
+      <c r="H3">
+        <v>850</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>458</v>
+      </c>
+      <c r="H4">
+        <v>499</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5">
+        <v>699</v>
+      </c>
+      <c r="H5">
+        <v>750</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>869</v>
+      </c>
+      <c r="H6">
+        <v>899</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>779</v>
+      </c>
+      <c r="H7">
+        <v>799</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8">
+        <v>869</v>
+      </c>
+      <c r="H8">
+        <v>899</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>879</v>
+      </c>
+      <c r="H9">
+        <v>899</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>739</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
-        <v>3099</v>
-      </c>
-      <c r="H3">
-        <v>3990</v>
-      </c>
-      <c r="I3">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>399</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>1399</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>1399</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14">
+        <v>729</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15">
+        <v>699</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>399</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
@@ -550,6 +1122,19 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -46,187 +46,79 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>XI811MP0FRUO4NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP05NHDWNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1GTAG8NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP11H524NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP01H64CNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP04TH50NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1IGQYKNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1HVPXSNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP0I0UHKNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1840R0NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1IZIQCNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1786OONAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1HURWSNAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP1G0RG0NAFAMZ</t>
-  </si>
-  <si>
-    <t>XI811MP0KAOJWNAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/26/4937/1.jpg?6348</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/09/4937/1.jpg?0549</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/88/7066/1.jpg?0347</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/62/9455/1.jpg?8331</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/02/4807/1.jpg?8966</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/08/0937/1.jpg?1933</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/91/4807/1.jpg?8966</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/4996/1.jpg?5848</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/30/2726/1.jpg?4347</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/74/0907/1.jpg?2896</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/92/3565/1.jpg?9948</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/6054/1.jpg?1466</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/4555/1.jpg?7149</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/87/3756/1.jpg?6608</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/34/0907/1.jpg?2895</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-12c-3go-64go-gray-garantie-1-an-739462.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-note-12-667-amoled-120hz-4-go-128-go-gris-onyx-garantie-1-an-739490.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-9a-6.53-2-go-32-go-granite-gray-garantie-1-an-660788.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-10c-graohite-gray-4g-ram-64g-rom-garantie-1-an-554926.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-pebble-white-garantie-1-an-support-lazy-360-708420.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-note-12-4g-6.67-6go-128go-blue-garantie-1an-739080.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-carbon-gray-garantie-1-an-support-lazy-360-708419.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-10-2022-6.5-6go-128go-carbon-gray-garantie-1-an-699409.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-10c-6.71-4go-128go-vert-garantie-1-an-627203.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-a1-2gb-32gb-light-green-709047.html</t>
-  </si>
-  <si>
-    <t>/note-11-pro-667-amoled120hz-8go-128go-graphite-gray-garantie-1-an-xiaomi-mpg29802.html</t>
-  </si>
-  <si>
-    <t>/poco-f3-8go-256go-arctic-white-garantie-1-an-xiaomi-mpg20438.html</t>
-  </si>
-  <si>
-    <t>/redmi-10c-6.71-4go-128go-graphite-gray-garantie-1-an-xiaomi-mpg29804.html</t>
-  </si>
-  <si>
-    <t>/redmi-10c-6.71-4go-64go-bleu-garantie-1-an-xiaomi-mpg33911.html</t>
-  </si>
-  <si>
-    <t>/xiaomi-redmi-a1-2gb-32gb-light-blue-709043.html</t>
-  </si>
-  <si>
-    <t>Redmi 12C - 3Go - 64Go - Gray - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Note 12 - 6,67 Amoled 120hz - 4 Go -128 Go - Gris Onyx- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi 9A - 6.53 - 2 Go - 32 Go - Granite Gray - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi 10C - Graohite Gray - 4G RAM - 64G ROM - Garantie 1 An</t>
-  </si>
-  <si>
-    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Pebble White - Garantie 1 an + Support lazy 360 °</t>
-  </si>
-  <si>
-    <t>Note 12 - 4G -6.67- 6Go-128Go-Blue- Garantie 1an</t>
-  </si>
-  <si>
-    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Carbon Gray - Garantie 1 an + Support lazy 360 °</t>
-  </si>
-  <si>
-    <t>Redmi 10 2022 - 6.5 - 6Go - 128Go - Carbon Gray - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi 10C - 6.71- 4Go - 128Go - Vert- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi A1+ - 2GB - 32GB - Light Green</t>
-  </si>
-  <si>
-    <t>Note 11 Pro - 6,67 - 108 mégapixel  - 8Go-128Go - GRAPHITE GRAY - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Poco F3 - 8Go - 256Go - Arctic White - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi 10C - 6.71- 4Go - 128Go  - Graphite Gray - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi10C - 6.71- 4Go - 64Go  - Mint Green - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Redmi A1+  -  2GB  - 32GB - Light Blue</t>
-  </si>
-  <si>
-    <t>XIAOMI</t>
+    <t>SA024MP16WWZ4NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1IT0BGNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0LC8EKNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0FDWCSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0RAKGCNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP04SKKSNAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/0796/1.jpg?1046</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/92/0527/1.jpg?8149</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/35/8427/1.jpg?4548</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/25/8427/1.jpg?4548</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/45/8427/1.jpg?7589</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/08/0515/1.jpg?6573</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-4-64-go-noir-garantie-1-an-697027.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-noir-oppo-enco-air2-garantie-1-an-725029.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-noir-garantie-1-an-724853.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-blanc-garantie-1-an-724852.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-copper-garantie-1-an-724854.html</t>
+  </si>
+  <si>
+    <t>/samsung-tablette-galaxy-tab-a7-lite-8.7-3-go-32-go-gray-garantie-1-an-515080.html</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 4- 64 Go - NOIR - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - NOIR + Oppo Enco Air2 - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - BLANC - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - COPPER - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Tablette - Galaxy TAB A7 LITE 8.7 - 3 Go - 32 Go - Gray - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>Samsung</t>
   </si>
   <si>
     <t>Phones &amp; Tablets/Mobile Phones/Smartphones/Android Phones</t>
@@ -600,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,28 +535,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>469</v>
+        <v>599.99</v>
       </c>
       <c r="H2">
-        <v>529</v>
+        <v>759</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -675,28 +567,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>779</v>
+        <v>689.9</v>
       </c>
       <c r="H3">
-        <v>850</v>
+        <v>799</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -707,28 +599,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="H4">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -739,28 +631,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>699</v>
+        <v>519</v>
       </c>
       <c r="H5">
-        <v>750</v>
+        <v>529</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -771,28 +663,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>869</v>
+        <v>519</v>
       </c>
       <c r="H6">
-        <v>899</v>
+        <v>529</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -803,318 +695,30 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G7">
-        <v>779</v>
+        <v>699</v>
       </c>
       <c r="H7">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8">
-        <v>869</v>
-      </c>
-      <c r="H8">
-        <v>899</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9">
-        <v>879</v>
-      </c>
-      <c r="H9">
-        <v>899</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10">
-        <v>739</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11">
-        <v>399</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12">
-        <v>1399</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13">
-        <v>1399</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14">
-        <v>729</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15">
-        <v>699</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16">
-        <v>399</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
     </row>
@@ -1126,15 +730,6 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -46,76 +46,484 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>SA024MP16WWZ4NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1IT0BGNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0LC8EKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0FDWCSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0RAKGCNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP04SKKSNAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/0796/1.jpg?1046</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/92/0527/1.jpg?8149</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/35/8427/1.jpg?4548</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/25/8427/1.jpg?4548</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/45/8427/1.jpg?7589</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/08/0515/1.jpg?6573</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-4-64-go-noir-garantie-1-an-697027.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-noir-oppo-enco-air2-garantie-1-an-725029.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-noir-garantie-1-an-724853.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-blanc-garantie-1-an-724852.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-copper-garantie-1-an-724854.html</t>
-  </si>
-  <si>
-    <t>/samsung-tablette-galaxy-tab-a7-lite-8.7-3-go-32-go-gray-garantie-1-an-515080.html</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 4- 64 Go - NOIR - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - NOIR + Oppo Enco Air2 - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - Noir - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - BLANC - Garantie 1 an</t>
+    <t>SA024MP1C6H4KNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1I4T6CNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0K3UESNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0Q26GKNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0K1OH8NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0P1WTSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0V08VKNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0D58Q8NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP12HJECNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1CV90WNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP10Y064NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP11UL0CNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1GGSLSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1L89G0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP195KLONAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0P98PSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0X8WI4NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1378JWNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0PRGNONAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0JT4LWNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP043IQ4NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1F4RIKNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1L33KCNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1383F0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0X9RD8NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0M78U8NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP196FGSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1HCEQ0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0ZHEKONAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP07UJU4NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1CXGKSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1CVYESNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP074B8KNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0JKKQKNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP16XMD0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1FO0F0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0IMKTGNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP1ASX6CNAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0VKMR0NAFAMZ</t>
+  </si>
+  <si>
+    <t>SA024MP0PIWSCNAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/80/9237/1.jpg?3468</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/9237/1.jpg?3527</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/7717/1.jpg?8167</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/7717/1.jpg?8167</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/6707/1.jpg?4222</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/0796/1.jpg?1046</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/52/0796/1.jpg?1046</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/22/0796/1.jpg?1046</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/64/6437/1.jpg?1386</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/0796/1.jpg?1046</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/62/0527/1.jpg?8148</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/63/5727/1.jpg?2927</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/88/1236/1.jpg?2905</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/96/1236/1.jpg?3280</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/75/8427/1.jpg?7589</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/4216/1.jpg?7225</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/55/8427/1.jpg?7589</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/65/8427/1.jpg?7589</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/2717/1.jpg?9669</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/2717/1.jpg?9669</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/06/8827/1.jpg?7988</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/85/8827/1.jpg?7988</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/95/8827/1.jpg?7988</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/65/8827/1.jpg?7991</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/55/8827/1.jpg?7991</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/37/2896/1.jpg?5328</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/75/8827/1.jpg?7988</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/89/5986/1.jpg?9098</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/59/5986/1.jpg?9098</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/13/1827/1.jpg?4857</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/1827/1.jpg?4857</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/1125/1.jpg?6147</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/11/9585/2.jpg?3813</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/32/8727/1.jpg?6389</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/1125/1.jpg?6147</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/86/7807/1.jpg?6907</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/31/2865/1.jpg?7091</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/78/6117/1.jpg?3507</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/53/0307/1.jpg?7585</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/8727/1.jpg?6389</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-64-go-bleu-garantie-1-an-732908.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-64-go-white-garantie-1-an-732909.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-bronze-garantie-1-an-717733.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-vert-menthe-garantie-1-an-717734.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-4-64-go-blanc-garantie-1-an-707633.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-noir-garantie-1-an-697024.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-copper-garantie-1-an-697025.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-65-3-32-go-bleu-garantie-1-an-697022.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-s22-ultra-12go-256-go-noir-5g-chargeur-25w-garantie-1-an-734646.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-4-64-go-copper-garantie-1-an-697028.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-65-3-32-go-copper-inkax-t03-garantie-1-an-725026.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-s23-6.1-fhd-dynamic-amoled-2x-5g-8-go-256-go-noir-garantie-1an-727536.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-128-go-black-garantie-1-an-632188.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-128-go-white-garantie-1-an-632169.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-copper-garantie-1-an-724857.html</t>
+  </si>
+  <si>
+    <t>/galaxy-a03-6.5-3-go-32go-bleu-garantie-1-an-samsung-mpg30957.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-noir-garantie-1-an-724855.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-724856.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-717234.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-noir-garantie-1-an-717233.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-gold-garantie-1-an-728860.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-bleu-garantie-1-an-728858.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-black-garantie-1-an-728859.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-noir-1an-garantie-728856.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-green-1an-garantie-728855.html</t>
+  </si>
+  <si>
+    <t>/samsung-a33-6.4-8gb-128go-blue-garantie-1-an-698273.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-silver-1an-garantie-728857.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-128-go-anticasse-peach-garantie-1-an-689598.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a13-6.5-4-go-128-go-anticasse-bleu-garantie-1-an-689595.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a14-6.6-lcd-90hz-4g-4go-64go-green-garantie-1an-728131.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a14-6.6-lcd-90hz-4g-4go-64go-silver-garantie-1an-728128.html</t>
+  </si>
+  <si>
+    <t>/galaxy-a03-core-6.5-2go-32go-bleu-garantie-1an-samsung-mpg26340.html</t>
+  </si>
+  <si>
+    <t>/a73-6.7-8go-128go-108mp-gray-garantie-1an-samsung-mpg32943.html</t>
+  </si>
+  <si>
+    <t>/samsung-a14-6.6-6-go-128-gb-silver-1an-garantie-727823.html</t>
+  </si>
+  <si>
+    <t>/galaxy-a03-core-6.5-2go-32go-black-garantie-1an-samsung-mpg27354.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04-6.5-4-gb-64-gb-noir-1an-garantie-708768.html</t>
+  </si>
+  <si>
+    <t>/galaxy-a23-66-4-128-go-noir-garantie-1-an-samsung-mpg29886.html</t>
+  </si>
+  <si>
+    <t>/samsung-galaxy-a04e-6.5-3gb-64gb-copper-1an-garantie-711687.html</t>
+  </si>
+  <si>
+    <t>/samsung-a53-6eg-6.5-5gds-8128-gb-black-703035.html</t>
+  </si>
+  <si>
+    <t>/samsung-a14-6.6-6-go-128-gb-green-1an-garantie-727824.html</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 64 Go - Bleu- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 64 Go - white - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Bronze - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Vert Menthe - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 4 - 64 Go - blanc- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - NOIR - Garantie 1 an</t>
   </si>
   <si>
     <t>Galaxy A04 6,5 3- 32 Go - COPPER - Garantie 1 an</t>
   </si>
   <si>
-    <t>Tablette - Galaxy TAB A7 LITE 8.7 - 3 Go - 32 Go - Gray - Garantie 1 An</t>
+    <t>Galaxy A04E 6,5 3- 32 Go - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy S22 Ultra - 12Go - 256 Go - Noir- 5G + Chargeur 25w - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 4-64 Go - COPPER - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 6,5 3- 32 Go - COPPER + INKAX T03 - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy S23 6.1 FHD+ Dynamic Amoled 2X 5G / 8 GO / 256 GO / Noir / Garantie 1an</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go - Black  - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go - white - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Copper - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A03 - 6.5 - 3 Go - 32Go - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e  6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e  6.5 HD+ 3G+4G Ram Plus 64G - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Gold- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Black- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4)- 128 GB - 5000mAh - Noir-1an Garantie</t>
+  </si>
+  <si>
+    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4) - 128 GB - 5000mAh - Green-1an Garantie</t>
+  </si>
+  <si>
+    <t>A33 - 6.4 - 8gb - 128GO - BLUE - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4) - 128 GB - 5000mAh - Silver - 1an Garantie</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go + Anticasse - Peach - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go + Anticasse - Bleu- Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A14 6.6 LCD 90Hz 4G 4GO 64GO - Green - Garantie 1an</t>
+  </si>
+  <si>
+    <t>Galaxy A14 6.6 LCD 90Hz 4G 4GO 64GO - Silver - Garantie 1an</t>
+  </si>
+  <si>
+    <t>Galaxy A03 Core - 6.5 - 2Go -32Go - Bleu - Garantie 1an</t>
+  </si>
+  <si>
+    <t>A73 - 6.7- 8GO - 128GO- 108MP - Gray - Garantie 1an</t>
+  </si>
+  <si>
+    <t>A14 - 6.6 - 6 Go - 128 GB - Silver-1an Garantie</t>
+  </si>
+  <si>
+    <t>Galaxy A03 Core - 6.5 - 2Go -32Go - Black - Garantie 1an</t>
+  </si>
+  <si>
+    <t>Galaxy A04 - 6.5 - 4 GB - 64 GB - Noir -1An Garantie</t>
+  </si>
+  <si>
+    <t>Galaxy A23 - 6,6 - 4Go - 128 Go - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Galaxy A04E - 6.5 -  3GB - 64GB - Copper - 1an Garantie</t>
+  </si>
+  <si>
+    <t>A53 6EG - 6.5 - 5G/DS - 8/128 GB - Black</t>
+  </si>
+  <si>
+    <t>A14 - 6.6 - 6 Go - 128 GB - Green-1an Garantie</t>
   </si>
   <si>
     <t>Samsung</t>
@@ -492,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,28 +943,28 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2">
+        <v>649</v>
+      </c>
+      <c r="H2">
+        <v>899</v>
+      </c>
+      <c r="I2">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>599.99</v>
-      </c>
-      <c r="H2">
-        <v>759</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -567,28 +975,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="G3">
-        <v>689.9</v>
+        <v>649</v>
       </c>
       <c r="H3">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -599,28 +1007,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="G4">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="H4">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -631,28 +1039,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="G5">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="H5">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,28 +1071,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="G6">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="H6">
-        <v>529</v>
+        <v>799</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -695,30 +1103,1118 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7">
+        <v>499.99</v>
+      </c>
+      <c r="H7">
+        <v>659</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8">
+        <v>499.99</v>
+      </c>
+      <c r="H8">
+        <v>659</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9">
+        <v>479.99</v>
+      </c>
+      <c r="H9">
+        <v>599</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10">
+        <v>3999</v>
+      </c>
+      <c r="H10">
+        <v>4999</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11">
+        <v>615</v>
+      </c>
+      <c r="H11">
+        <v>759</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12">
+        <v>574.9</v>
+      </c>
+      <c r="H12">
+        <v>699</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13">
+        <v>3499</v>
+      </c>
+      <c r="H13">
+        <v>4199</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14">
+        <v>839.99</v>
+      </c>
+      <c r="H14">
+        <v>999</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15">
+        <v>839.99</v>
+      </c>
+      <c r="H15">
+        <v>999</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16">
+        <v>479</v>
+      </c>
+      <c r="H16">
+        <v>559</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17">
+        <v>455</v>
+      </c>
+      <c r="H17">
+        <v>529</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18">
+        <v>479</v>
+      </c>
+      <c r="H18">
+        <v>559</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19">
+        <v>479</v>
+      </c>
+      <c r="H19">
+        <v>559</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20">
+        <v>499</v>
+      </c>
+      <c r="H20">
+        <v>559</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21">
+        <v>499</v>
+      </c>
+      <c r="H21">
+        <v>559</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22">
+        <v>539</v>
+      </c>
+      <c r="H22">
+        <v>599</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23">
+        <v>539</v>
+      </c>
+      <c r="H23">
+        <v>599</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24">
+        <v>539</v>
+      </c>
+      <c r="H24">
+        <v>599</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25">
+        <v>777</v>
+      </c>
+      <c r="H25">
+        <v>850</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26">
+        <v>777</v>
+      </c>
+      <c r="H26">
+        <v>850</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="G7">
-        <v>699</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27">
+        <v>1449</v>
+      </c>
+      <c r="H27">
+        <v>1599</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28">
+        <v>777</v>
+      </c>
+      <c r="H28">
+        <v>850</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29">
+        <v>889</v>
+      </c>
+      <c r="H29">
+        <v>929</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30">
+        <v>889</v>
+      </c>
+      <c r="H30">
+        <v>929</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31">
+        <v>749</v>
+      </c>
+      <c r="H31">
+        <v>769</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32">
+        <v>749</v>
+      </c>
+      <c r="H32">
+        <v>769</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33">
+        <v>449</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34">
+        <v>2299</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35">
+        <v>949</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36">
+        <v>449</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37">
+        <v>649</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38">
+        <v>1128</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39">
+        <v>549</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40">
+        <v>1999</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41">
+        <v>949</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>0</v>
       </c>
     </row>
@@ -730,6 +2226,40 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -46,490 +46,442 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>SA024MP1C6H4KNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1I4T6CNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0K3UESNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0Q26GKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0K1OH8NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0P1WTSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0V08VKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0D58Q8NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP12HJECNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1CV90WNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP10Y064NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP11UL0CNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1GGSLSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1L89G0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP195KLONAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0P98PSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0X8WI4NAFAMZ</t>
+    <t>IK475MP1L2TGGNAFAMZ</t>
+  </si>
+  <si>
+    <t>SM119MP0IFXP4NAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP0VLOHCNAFAMZ</t>
+  </si>
+  <si>
+    <t>SM350MP0I51Q0NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP04SPA8NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1LSA4GNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP18V4R4NAFAMZ</t>
+  </si>
+  <si>
+    <t>IT293MP1EZ5CSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SM119MP016D5KNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1J3JVCNAFAMZ</t>
+  </si>
+  <si>
+    <t>OP579MP1FMGS8NAFAMZ</t>
+  </si>
+  <si>
+    <t>NO228MP063R18NAFAMZ</t>
+  </si>
+  <si>
+    <t>OP579MP09QMDKNAFAMZ</t>
+  </si>
+  <si>
+    <t>OP579MP0LNAH4NAFAMZ</t>
   </si>
   <si>
     <t>SA024MP1378JWNAFAMZ</t>
   </si>
   <si>
-    <t>SA024MP0PRGNONAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0JT4LWNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP043IQ4NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1F4RIKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1L33KCNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1383F0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0X9RD8NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0M78U8NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP196FGSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1HCEQ0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0ZHEKONAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP07UJU4NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1CXGKSNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1CVYESNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP074B8KNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0JKKQKNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP16XMD0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1FO0F0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0IMKTGNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP1ASX6CNAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0VKMR0NAFAMZ</t>
-  </si>
-  <si>
-    <t>SA024MP0PIWSCNAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/80/9237/1.jpg?3468</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/90/9237/1.jpg?3527</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/7717/1.jpg?8167</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/7717/1.jpg?8167</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/6707/1.jpg?4222</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/0796/1.jpg?1046</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/52/0796/1.jpg?1046</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/22/0796/1.jpg?1046</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/64/6437/1.jpg?1386</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/0796/1.jpg?1046</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/62/0527/1.jpg?8148</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/63/5727/1.jpg?2927</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/88/1236/1.jpg?2905</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/96/1236/1.jpg?3280</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/75/8427/1.jpg?7589</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/4216/1.jpg?7225</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/55/8427/1.jpg?7589</t>
+    <t>NO228MP0LYHBWNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP1CXUGSNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP0D05XONAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1JRU3KNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP1CJC38NAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP0OVKICNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP1B2KECNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP1548CKNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP1JDYY4NAFAMZ</t>
+  </si>
+  <si>
+    <t>RE500MP0F7JVSNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP17HAUKNAFAMZ</t>
+  </si>
+  <si>
+    <t>XI811MP0997U0NAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP1H7CP8NAFAMZ</t>
+  </si>
+  <si>
+    <t>AP009MP19MFS0NAFAMZ</t>
+  </si>
+  <si>
+    <t>AP009MP04JJ1CNAFAMZ</t>
+  </si>
+  <si>
+    <t>AP009MP1BC6RSNAFAMZ</t>
+  </si>
+  <si>
+    <t>SC784MP0HMSXKNAFAMZ</t>
+  </si>
+  <si>
+    <t>IN440MP14KXWKNAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/95/8696/1.jpg?7209</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/30/9766/1.jpg?2990</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/53/0796/1.jpg?1048</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/30/4686/1.jpg?2203</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/08/0576/1.jpg?4287</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/97/0576/1.jpg?4287</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/75/3556/1.jpg?4809</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/85/6207/1.jpg?5806</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/01/9766/1.jpg?2989</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/92/5446/1.jpg?3268</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/86/7086/1.jpg?8007</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/10/2527/1.jpg?4798</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/16/3586/1.jpg?5145</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/36/3586/1.jpg?6487</t>
   </si>
   <si>
     <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/65/8427/1.jpg?7589</t>
   </si>
   <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/2717/1.jpg?9669</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/33/2717/1.jpg?9669</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/06/8827/1.jpg?7988</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/85/8827/1.jpg?7988</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/95/8827/1.jpg?7988</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/65/8827/1.jpg?7991</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/55/8827/1.jpg?7991</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/37/2896/1.jpg?5328</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/75/8827/1.jpg?7988</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/89/5986/1.jpg?9098</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/59/5986/1.jpg?9098</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/13/1827/1.jpg?4857</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/1827/1.jpg?4857</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/1125/1.jpg?6147</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/11/9585/2.jpg?3813</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/32/8727/1.jpg?6389</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/72/1125/1.jpg?6147</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/86/7807/1.jpg?6907</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/31/2865/1.jpg?7091</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/78/6117/1.jpg?3507</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/53/0307/1.jpg?7585</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/42/8727/1.jpg?6389</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-64-go-bleu-garantie-1-an-732908.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-64-go-white-garantie-1-an-732909.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-bronze-garantie-1-an-717733.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a03-core-65-hd-2-32-go-vert-menthe-garantie-1-an-717734.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-4-64-go-blanc-garantie-1-an-707633.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-noir-garantie-1-an-697024.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-copper-garantie-1-an-697025.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-65-3-32-go-bleu-garantie-1-an-697022.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-s22-ultra-12go-256-go-noir-5g-chargeur-25w-garantie-1-an-734646.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-4-64-go-copper-garantie-1-an-697028.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-65-3-32-go-copper-inkax-t03-garantie-1-an-725026.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-s23-6.1-fhd-dynamic-amoled-2x-5g-8-go-256-go-noir-garantie-1an-727536.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-128-go-black-garantie-1-an-632188.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-128-go-white-garantie-1-an-632169.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-copper-garantie-1-an-724857.html</t>
-  </si>
-  <si>
-    <t>/galaxy-a03-6.5-3-go-32go-bleu-garantie-1-an-samsung-mpg30957.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-noir-garantie-1-an-724855.html</t>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/36/8807/1.jpg?9905</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/82/2007/1.jpg?2275</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/21/8427/1.jpg?5074</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/93/6776/1.jpg?8347</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/81/5237/1.jpg?1287</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/41/7837/1.jpg?8512</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/79/0617/1.jpg?9966</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/69/0617/1.jpg?9966</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/93/0307/1.jpg?7826</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/25/5466/1.jpg?1076</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/73/0307/1.jpg?7826</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/15/5466/1.jpg?1076</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/89/3627/1.jpg?2808</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/76/6296/1.jpg?3193</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/07/6296/1.jpg?3192</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/79/5106/1.jpg?1749</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/29/6174/1.jpg?8070</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/68/1617/1.jpg?8848</t>
+  </si>
+  <si>
+    <t>/iku-x5-6.95-3-go-32-go-5500mah-blue-garantie-1-an-696859.html</t>
+  </si>
+  <si>
+    <t>/smart-e1-6.1-2go-16go-bleu-garantie-1-an-667903.html</t>
+  </si>
+  <si>
+    <t>/infinix-smartphone-smart-6-plus-2g-64g-682-tranquil-sea-blue-x6823-garantie-1an-697035.html</t>
+  </si>
+  <si>
+    <t>/smartec-smartphone-smartec-saphir-2go-ram-32-go-stockage-686403.html</t>
+  </si>
+  <si>
+    <t>/redmi-10c-6.71-4gb-64gb-gris-graphite-garantie-1-an-xiaomi-mpg33910.html</t>
+  </si>
+  <si>
+    <t>/redmi-10c-6.71-4go-64go-bleu-garantie-1-an-xiaomi-mpg33911.html</t>
+  </si>
+  <si>
+    <t>/smart-6-6.6-2-go-32-go-heart-of-ocean-garantie-1-an-infinix-mpg22486.html</t>
+  </si>
+  <si>
+    <t>/itel-a18-3g-ds-1gb-32g-et-pochette-anticasse-blue-garantie-1an-702658.html</t>
+  </si>
+  <si>
+    <t>/smart-e2-6.55-2go-32go-noir-garantie-1-an-667910.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-note-11s-8go-128go-108mp-bleu-garantie-1-an-644529.html</t>
+  </si>
+  <si>
+    <t>/oppo-a17-6.56-4-64-gb-noir-5000-mah-garantie-1-an-680768.html</t>
+  </si>
+  <si>
+    <t>/nokia-c1-2eme-edition-1go-16go-purple-garantie-1-an-725201.html</t>
+  </si>
+  <si>
+    <t>/oppo-a17k-6.56-3-64-gb-navy-blue-5000-mah-garantie-1-an-685361.html</t>
+  </si>
+  <si>
+    <t>/oppo-a17k-6.56-3-64-gb-bleu-5000-mah-garantie-1-an-685363.html</t>
   </si>
   <si>
     <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-724856.html</t>
   </si>
   <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-bleu-garantie-1-an-717234.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-3g4g-ram-plus-64g-noir-garantie-1-an-717233.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-gold-garantie-1-an-728860.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-bleu-garantie-1-an-728858.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-hd-7gb-ram34-128gb-black-garantie-1-an-728859.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-noir-1an-garantie-728856.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-green-1an-garantie-728855.html</t>
-  </si>
-  <si>
-    <t>/samsung-a33-6.4-8gb-128go-blue-garantie-1-an-698273.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a14-6.6-7gb-ram34-128-gb-5000mah-silver-1an-garantie-728857.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-128-go-anticasse-peach-garantie-1-an-689598.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a13-6.5-4-go-128-go-anticasse-bleu-garantie-1-an-689595.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a14-6.6-lcd-90hz-4g-4go-64go-green-garantie-1an-728131.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a14-6.6-lcd-90hz-4g-4go-64go-silver-garantie-1an-728128.html</t>
-  </si>
-  <si>
-    <t>/galaxy-a03-core-6.5-2go-32go-bleu-garantie-1an-samsung-mpg26340.html</t>
-  </si>
-  <si>
-    <t>/a73-6.7-8go-128go-108mp-gray-garantie-1an-samsung-mpg32943.html</t>
-  </si>
-  <si>
-    <t>/samsung-a14-6.6-6-go-128-gb-silver-1an-garantie-727823.html</t>
-  </si>
-  <si>
-    <t>/galaxy-a03-core-6.5-2go-32go-black-garantie-1an-samsung-mpg27354.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04-6.5-4-gb-64-gb-noir-1an-garantie-708768.html</t>
-  </si>
-  <si>
-    <t>/galaxy-a23-66-4-128-go-noir-garantie-1-an-samsung-mpg29886.html</t>
-  </si>
-  <si>
-    <t>/samsung-galaxy-a04e-6.5-3gb-64gb-copper-1an-garantie-711687.html</t>
-  </si>
-  <si>
-    <t>/samsung-a53-6eg-6.5-5gds-8128-gb-black-703035.html</t>
-  </si>
-  <si>
-    <t>/samsung-a14-6.6-6-go-128-gb-green-1an-garantie-727824.html</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 64 Go - Bleu- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 64 Go - white - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Bronze - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core 6,5 HD+ 2- 32 Go - Vert Menthe - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 4 - 64 Go - blanc- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - NOIR - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - COPPER - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04E 6,5 3- 32 Go - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy S22 Ultra - 12Go - 256 Go - Noir- 5G + Chargeur 25w - Garantie 1 An</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 4-64 Go - COPPER - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 6,5 3- 32 Go - COPPER + INKAX T03 - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy S23 6.1 FHD+ Dynamic Amoled 2X 5G / 8 GO / 256 GO / Noir / Garantie 1an</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go - Black  - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go - white - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Copper - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 - 6.5 - 3 Go - 32Go - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Noir - Garantie 1 an</t>
+    <t>/nokia-c2-2eme-edition-6.51-4g-2go-32go-pochette-et-anticasse-gris-garantie-1-an-708863.html</t>
+  </si>
+  <si>
+    <t>/infinix-hot-20s-6.78-8go-128go-noir-garantie-1an-700228.html</t>
+  </si>
+  <si>
+    <t>/infinix-hot-20i-66-hd-ips-4go-128go-anticasse-vert-garantie-1-an-724812.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-a1-652-2go-32go-anticasse-black-garantie-1-an-677639.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-12c-4go-128go-purple-garantie-1-an-732518.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-note-12-6.67-4go-128go-gris-garantie-1an-738714.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-6-hd-6.6-4gds-232-gb-x6512-aqua-sky-716097.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-6-hd-6.6-4gds-232-gb-x6512-origin-blue-716096.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-6-hd-6.6-4gds-232-gb-x6512-aqua-sky-703039.html</t>
+  </si>
+  <si>
+    <t>/redmi-note-11-4g-128g-gris-garantie-1-an-664552.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-6-hd-6.6-4gds-232-gb-x6512-force-black-703037.html</t>
+  </si>
+  <si>
+    <t>/xiaomi-redmi-note-11-4g-128g-bleu-garantie-1-an-664551.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-7-6.62-4-go-64-go-vert-garantie-1-an-726398.html</t>
+  </si>
+  <si>
+    <t>/apple-iphone-14-pro-max-67-512-gb-silver-garantie-12-mois-692667.html</t>
+  </si>
+  <si>
+    <t>/apple-iphone-14-pro-max-67-512-gb-deep-purple-garantie-12-mois-692670.html</t>
+  </si>
+  <si>
+    <t>/apple-iphone-11-6.1-64-go-noir-garantie-1-an-apple-earpods-offertes-601597.html</t>
+  </si>
+  <si>
+    <t>/schneider-wave-3-6.52-4go-32-go-noir-garantie-1an-pochette-anticasse-471692.html</t>
+  </si>
+  <si>
+    <t>/infinix-smart-7-66-4gb-up-to-7gb-64-gb-iceland-white-garantie-1-an-716186.html</t>
+  </si>
+  <si>
+    <t>X5 - 6.95 - 3 Go - 32 Go -5500mAh -  Blue - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>E1 - 6.1 - 2Go - 16Go - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Smartphone SMART 6 PLUS - 2G -64G - 6,82 - TRANQUIL SEA BLUE - X6823 - Garantie 1an</t>
+  </si>
+  <si>
+    <t>Smartphone Smartec Saphir  2GO Ram / 32 Go Stockage</t>
+  </si>
+  <si>
+    <t>Redmi 10C - 6.71 - 4GB - 64GB - Gris Graphite - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi 10C - 6.71- 4Go - 64Go - Vert - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Smart 6 HD - 6.6 - 2 Go - 32 Go et Pochette + Anticasse - Blue - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>A18 - 3G - DS - 1Gb- 32G Et Pochette + Anticasse - Blue - Garantie 1an</t>
+  </si>
+  <si>
+    <t>E2 - 6.55 - 2Go - 32Go - Noir - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi Note 11S - 8Go - 128Go - 108MP - Bleu - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>A17 6.56 4 - 64 Gb Noir -5000 mAh - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>C1 2ÈME ÉDITION 1GO 16GO - purple Garantie 1 An</t>
+  </si>
+  <si>
+    <t>A17k 6.56 3 - 64 Gb Navy Blue -5000 mAh - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>A17k 6.56 3 - 64 Gb  Bleu -5000 mAh - Garantie 1 An</t>
   </si>
   <si>
     <t>Galaxy A04e 6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
   </si>
   <si>
-    <t>Galaxy A04e  6.5 HD+ 3G+4G Ram Plus 64G - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e  6.5 HD+ 3G+4G Ram Plus 64G - Noir - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Gold- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Bleu - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04e 6.5 HD + 7Gb Ram(3+4) + 128GB - Black- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4)- 128 GB - 5000mAh - Noir-1an Garantie</t>
-  </si>
-  <si>
-    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4) - 128 GB - 5000mAh - Green-1an Garantie</t>
-  </si>
-  <si>
-    <t>A33 - 6.4 - 8gb - 128GO - BLUE - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A14 - 6.6 - 7Gb Ram(3+4) - 128 GB - 5000mAh - Silver - 1an Garantie</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go + Anticasse - Peach - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A13 - 6.5 - 4 Go - 128 Go + Anticasse - Bleu- Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A14 6.6 LCD 90Hz 4G 4GO 64GO - Green - Garantie 1an</t>
-  </si>
-  <si>
-    <t>Galaxy A14 6.6 LCD 90Hz 4G 4GO 64GO - Silver - Garantie 1an</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core - 6.5 - 2Go -32Go - Bleu - Garantie 1an</t>
-  </si>
-  <si>
-    <t>A73 - 6.7- 8GO - 128GO- 108MP - Gray - Garantie 1an</t>
-  </si>
-  <si>
-    <t>A14 - 6.6 - 6 Go - 128 GB - Silver-1an Garantie</t>
-  </si>
-  <si>
-    <t>Galaxy A03 Core - 6.5 - 2Go -32Go - Black - Garantie 1an</t>
-  </si>
-  <si>
-    <t>Galaxy A04 - 6.5 - 4 GB - 64 GB - Noir -1An Garantie</t>
-  </si>
-  <si>
-    <t>Galaxy A23 - 6,6 - 4Go - 128 Go - Noir - Garantie 1 an</t>
-  </si>
-  <si>
-    <t>Galaxy A04E - 6.5 -  3GB - 64GB - Copper - 1an Garantie</t>
-  </si>
-  <si>
-    <t>A53 6EG - 6.5 - 5G/DS - 8/128 GB - Black</t>
-  </si>
-  <si>
-    <t>A14 - 6.6 - 6 Go - 128 GB - Green-1an Garantie</t>
+    <t>C2 2eme Edition - 6.51 - 4G - 2Go - 32Go + Pochette et Anticasse - Gris - Garantie 1 An -</t>
+  </si>
+  <si>
+    <t>Hot 20S -6.78- 8Go -128Go - Noir - Garantie 1an</t>
+  </si>
+  <si>
+    <t>Hot 20i - 6,6 HD+ IPS - 4GO - 128GO  + Anticasse - Vert - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Redmi A1+ - 6,52 ″ - 2Go - 32Go + Anticasse - Black - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>Redmi 12C - 4Go - 128Go - Purple - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Note 12 -6.67- 4Go-128Go-Gris- Garantie 1an</t>
+  </si>
+  <si>
+    <t>SMART 6 HD - 6.6 - 4G/DS - 2/32 GB - X6512 - AQUA SKY</t>
+  </si>
+  <si>
+    <t>SMART 6 HD - 6.6 - 4G/DS - 2/32 GB - X6512 - ORIGIN Blue</t>
+  </si>
+  <si>
+    <t>SMART 6 HD - 6.6  - 4G/DS - 2/32 GB - X6512 - AQUA SKY</t>
+  </si>
+  <si>
+    <t>Note 11 - 4G - 128G - Gris - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>SMART 6 HD - 6.6  - 4G/DS - 2/32 GB - X6512 - Force Black</t>
+  </si>
+  <si>
+    <t>Redmi Note 11 - 4G - 128G - Bleu - Garantie 1 An</t>
+  </si>
+  <si>
+    <t>Smart 7 - 6.62 - 4 Go - 64 Go - Vert - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max - 6,7 - 512 GB - Silver - Garantie 12 mois</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro Max - 6,7 - 512 GB -Deep Purple - Garantie 12 mois</t>
+  </si>
+  <si>
+    <t>iPhone 11 - 6.1- 64 Go - Noir - Garantie 1 an +  Apple Earpods Offertes</t>
+  </si>
+  <si>
+    <t>Wave 3 - 6.52 - 4Go - 32 Go - Noir - Garantie 1an + Pochette + Anticasse</t>
+  </si>
+  <si>
+    <t>Smart 7 - 6,6 - 4GB (Up to 7GB) - 64 GB - Iceland White - Garantie 1 an</t>
+  </si>
+  <si>
+    <t>Iku</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Infinix</t>
+  </si>
+  <si>
+    <t>smartec</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>Itel</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Nokia</t>
   </si>
   <si>
     <t>Samsung</t>
   </si>
   <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
     <t>Phones &amp; Tablets/Mobile Phones/Smartphones/Android Phones</t>
+  </si>
+  <si>
+    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/iOS Phones</t>
   </si>
 </sst>
 </file>
@@ -900,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,31 +895,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G2">
-        <v>649</v>
+        <v>359</v>
       </c>
       <c r="H2">
-        <v>899</v>
+        <v>529</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -975,31 +927,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G3">
-        <v>649</v>
+        <v>239</v>
       </c>
       <c r="H3">
-        <v>899</v>
+        <v>329</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1007,28 +959,28 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G4">
-        <v>399</v>
+        <v>368.99</v>
       </c>
       <c r="H4">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1039,28 +991,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G5">
+        <v>295</v>
+      </c>
+      <c r="H5">
         <v>399</v>
       </c>
-      <c r="H5">
-        <v>550</v>
-      </c>
       <c r="I5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1071,28 +1023,28 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G6">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="H6">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1103,28 +1055,28 @@
         <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G7">
-        <v>499.99</v>
+        <v>574</v>
       </c>
       <c r="H7">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="I7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1135,28 +1087,28 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G8">
-        <v>499.99</v>
+        <v>359</v>
       </c>
       <c r="H8">
-        <v>659</v>
+        <v>449</v>
       </c>
       <c r="I8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1167,25 +1119,25 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G9">
-        <v>479.99</v>
+        <v>199</v>
       </c>
       <c r="H9">
-        <v>599</v>
+        <v>249</v>
       </c>
       <c r="I9">
         <v>20</v>
@@ -1199,31 +1151,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G10">
-        <v>3999</v>
+        <v>299</v>
       </c>
       <c r="H10">
-        <v>4999</v>
+        <v>369</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1231,28 +1183,28 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G11">
-        <v>615</v>
+        <v>999</v>
       </c>
       <c r="H11">
-        <v>759</v>
+        <v>1199</v>
       </c>
       <c r="I11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1263,28 +1215,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G12">
-        <v>574.9</v>
+        <v>578.9</v>
       </c>
       <c r="H12">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1295,28 +1247,28 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G13">
-        <v>3499</v>
+        <v>209</v>
       </c>
       <c r="H13">
-        <v>4199</v>
+        <v>249</v>
       </c>
       <c r="I13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1327,25 +1279,25 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G14">
-        <v>839.99</v>
+        <v>487</v>
       </c>
       <c r="H14">
-        <v>999</v>
+        <v>580</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1359,25 +1311,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G15">
-        <v>839.99</v>
+        <v>487</v>
       </c>
       <c r="H15">
-        <v>999</v>
+        <v>580</v>
       </c>
       <c r="I15">
         <v>16</v>
@@ -1391,19 +1343,19 @@
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G16">
         <v>479</v>
@@ -1423,25 +1375,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G17">
-        <v>455</v>
+        <v>299</v>
       </c>
       <c r="H17">
-        <v>529</v>
+        <v>349</v>
       </c>
       <c r="I17">
         <v>14</v>
@@ -1455,28 +1407,28 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G18">
-        <v>479</v>
+        <v>699</v>
       </c>
       <c r="H18">
-        <v>559</v>
+        <v>799</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1487,28 +1439,28 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G19">
         <v>479</v>
       </c>
       <c r="H19">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1519,28 +1471,28 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G20">
-        <v>499</v>
+        <v>379</v>
       </c>
       <c r="H20">
-        <v>559</v>
+        <v>429</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1551,25 +1503,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G21">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="H21">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="I21">
         <v>11</v>
@@ -1583,28 +1535,28 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G22">
-        <v>539</v>
+        <v>729</v>
       </c>
       <c r="H22">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1615,31 +1567,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G23">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="H23">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1647,31 +1599,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G24">
-        <v>539</v>
+        <v>369</v>
       </c>
       <c r="H24">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1679,31 +1631,31 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G25">
-        <v>777</v>
+        <v>368</v>
       </c>
       <c r="H25">
-        <v>850</v>
+        <v>399</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1711,28 +1663,28 @@
         <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G26">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H26">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1743,31 +1695,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G27">
-        <v>1449</v>
+        <v>368</v>
       </c>
       <c r="H27">
-        <v>1599</v>
+        <v>399</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1775,28 +1727,28 @@
         <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G28">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H28">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1807,28 +1759,28 @@
         <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G29">
-        <v>889</v>
+        <v>399</v>
       </c>
       <c r="H29">
-        <v>929</v>
+        <v>429</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1839,31 +1791,31 @@
         <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G30">
-        <v>889</v>
+        <v>9883.299999999999</v>
       </c>
       <c r="H30">
-        <v>929</v>
+        <v>10085</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1871,31 +1823,31 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G31">
-        <v>749</v>
+        <v>9883.299999999999</v>
       </c>
       <c r="H31">
-        <v>769</v>
+        <v>10085</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1903,31 +1855,31 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G32">
-        <v>749</v>
+        <v>2898</v>
       </c>
       <c r="H32">
-        <v>769</v>
+        <v>2958</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1935,22 +1887,22 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G33">
-        <v>449</v>
+        <v>575</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1959,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1967,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G34">
-        <v>2299</v>
+        <v>419</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1991,231 +1943,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35">
-        <v>949</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36">
-        <v>449</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37">
-        <v>649</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38">
-        <v>1128</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39">
-        <v>549</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40">
-        <v>1999</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
         <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41">
-        <v>949</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2253,13 +1981,6 @@
     <hyperlink ref="B32" r:id="rId31"/>
     <hyperlink ref="B33" r:id="rId32"/>
     <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -46,82 +46,34 @@
     <t>officiel</t>
   </si>
   <si>
-    <t>AP009MP13O3Q8NAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP0XPROGNAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP1LJ3VKNAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP19MFS0NAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP04JJ1CNAFAMZ</t>
-  </si>
-  <si>
-    <t>AP009MP0PRXMSNAFAMZ</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/66/6296/1.jpg?3143</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/56/6296/1.jpg?8371</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/96/6296/1.jpg?3190</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/76/6296/1.jpg?3193</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/07/6296/1.jpg?3192</t>
-  </si>
-  <si>
-    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/43/2937/1.jpg?5232</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-max-67-512-gb-space-black-garantie-12-mois-692666.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-61-512-gb-deep-purple-garantie-12-mois-692665.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-max-67-256-gb-silver-garantie-12-mois-692669.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-max-67-512-gb-silver-garantie-12-mois-692667.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-max-67-512-gb-deep-purple-garantie-12-mois-692670.html</t>
-  </si>
-  <si>
-    <t>/apple-iphone-14-pro-max-6-go-512-go-noir-garantie-12-mois-739234.html</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max - 6,7 - 512 GB - Space Black - Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro - 6,1 - 512 GB - Deep Purple  - Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max - 6,7 - 256 GB - Silver - Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max - 6,7 - 512 GB - Silver - Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max - 6,7 - 512 GB -Deep Purple - Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>iPhone 14 Pro Max- 6 GO - 512 GO - NOIR  Garantie 12 mois</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/iOS Phones</t>
+    <t>OA267MP078D5CNAFAMZ</t>
+  </si>
+  <si>
+    <t>OA267MP1I7GS0NAFAMZ</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/12/1476/1.jpg?3006</t>
+  </si>
+  <si>
+    <t>https://tn.jumia.is/unsafe/fit-in/300x300/filters:fill(white)/product/91/0476/1.jpg?2955</t>
+  </si>
+  <si>
+    <t>/oale-a20-double-sim-5.5-hd-2go16go-noir-674121.html</t>
+  </si>
+  <si>
+    <t>/oale-a20-double-sim-5.5-hd-2go16go-bleu-674019.html</t>
+  </si>
+  <si>
+    <t>A20  Double SIM 5.5 HD ,2Go/16Go Noir</t>
+  </si>
+  <si>
+    <t>A20 -Double SIM-5.5 HD -2Go/16Go-Bleu</t>
+  </si>
+  <si>
+    <t>Oale</t>
+  </si>
+  <si>
+    <t>Phones &amp; Tablets/Mobile Phones/Smartphones/Android Phones</t>
   </si>
 </sst>
 </file>
@@ -492,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,31 +487,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>9883.299999999999</v>
+        <v>365</v>
       </c>
       <c r="H2">
-        <v>10085</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -567,158 +519,30 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>8808.24</v>
+        <v>365</v>
       </c>
       <c r="H3">
-        <v>8988</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4">
-        <v>8226.120000000001</v>
-      </c>
-      <c r="H4">
-        <v>8394</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>9883.299999999999</v>
-      </c>
-      <c r="H5">
-        <v>10085</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>9883.299999999999</v>
-      </c>
-      <c r="H6">
-        <v>10085</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7">
-        <v>8289</v>
-      </c>
-      <c r="H7">
-        <v>8399</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -726,10 +550,6 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
